--- a/meta/en/13-2-1.xlsx
+++ b/meta/en/13-2-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="Workbook________" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>13.2 Integrate climate change measures into national policies, strategies and planning</t>
   </si>
   <si>
-    <t>13.2.1 Number of countries that have communicated the establishment or operationalization of an integrated policy/strategy/plan which increases their ability to adapt to the adverse impacts of climate change, and foster climate resilience and low greenhouse gas emissions development in a manner that does not threaten food production (including a national adaptation plan, nationally determined contribution, national communication, biennial update report or other)</t>
-  </si>
-  <si>
     <t>The State Agency on Environment Protection and Forestry</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t xml:space="preserve">www.ecology.gov.kg </t>
+  </si>
+  <si>
+    <t>13.2.1 Number of countries with nationally determined contributions, long-term strategies, national adaptation plans and adaptation communications, as reported to the secretariat of the United Nations Framework Convention on Climate Change</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +553,7 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -561,8 +561,8 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
+      <c r="B4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -576,7 +576,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -584,7 +584,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -592,7 +592,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -600,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -608,7 +608,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
